--- a/datasheet/PepperfryData.xlsx
+++ b/datasheet/PepperfryData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Pin</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>searchItem</t>
   </si>
 </sst>
 </file>
@@ -398,20 +401,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="103.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -424,8 +428,11 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -437,6 +444,9 @@
       </c>
       <c r="D2" t="s">
         <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
